--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1660.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1660.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.129790635825855</v>
+        <v>3.191581249237061</v>
       </c>
       <c r="B1">
-        <v>3.20455946517592</v>
+        <v>2.490107297897339</v>
       </c>
       <c r="C1">
-        <v>2.712154564883793</v>
+        <v>2.140068292617798</v>
       </c>
       <c r="D1">
-        <v>2.214934322799197</v>
+        <v>2.27028751373291</v>
       </c>
       <c r="E1">
-        <v>1.412303720030152</v>
+        <v>2.707282781600952</v>
       </c>
     </row>
   </sheetData>
